--- a/biology/Médecine/1249_en_santé_et_médecine/1249_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1249_en_santé_et_médecine/1249_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1249_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1249_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1249 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1249_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1249_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Égypte, l'armée de Louis IX est ravagée par le scorbut, maladie dont Joinville décrira ainsi les symptômes : « La chair de nos jambes séchait toute et le cuir de nos jambes devenait tavelé de noir et de terre, et à nous qui avions cette maladie venait chair pourrie aux gencives, et nul n’échappait. Le signe de mort était que là où le nez saignait, il fallait mourir[2]. »
-Maîtresse Hersend (encore active en 1259), l'une des deux seules chirurgiennes royales connues, accompagne Saint-Louis à Damiette pendant la septième croisade et, de retour, le roi lui ayant accordé une rente à vie, elle épousera Jacques, apothicaire royal, et deviendra propriétaire à Paris[3].
-Fondation de l'hôpital Saint-Jean de Bourbourg, dans le comté de Flandre[4].
-Fondation par Walter Suffield (en) du St. Giles's Hospital, futur Grand Hôpital (en) de Norwich[5].
-Fondation de l'hôpital de Montbéliard par le comte Thierry III [6].
-L'hôpital Saint-Jean de Damme, dans le comté de Flandre, est mentionné pour la première fois[7].
-Les statuts de la confrérie hospitalière de Saint-Jacques, à Tongres, bonne ville de la principauté de Liège, prescrivent l'accueil, non pas seulement des pèlerins – sans mention particulière, d'ailleurs, de ceux de Compostelle – mais des pauvres, des malades et, d'une façon générale, de tous les démunis[8].
-Vers 1249 : fondation d'un hôpital sur la paroisse de Saint-Laurent, dans le comté de Provence[9].
-Vers 1249 : fondation de l'hôpital de Lessines, dans le comté de Hainaut[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Égypte, l'armée de Louis IX est ravagée par le scorbut, maladie dont Joinville décrira ainsi les symptômes : « La chair de nos jambes séchait toute et le cuir de nos jambes devenait tavelé de noir et de terre, et à nous qui avions cette maladie venait chair pourrie aux gencives, et nul n’échappait. Le signe de mort était que là où le nez saignait, il fallait mourir. »
+Maîtresse Hersend (encore active en 1259), l'une des deux seules chirurgiennes royales connues, accompagne Saint-Louis à Damiette pendant la septième croisade et, de retour, le roi lui ayant accordé une rente à vie, elle épousera Jacques, apothicaire royal, et deviendra propriétaire à Paris.
+Fondation de l'hôpital Saint-Jean de Bourbourg, dans le comté de Flandre.
+Fondation par Walter Suffield (en) du St. Giles's Hospital, futur Grand Hôpital (en) de Norwich.
+Fondation de l'hôpital de Montbéliard par le comte Thierry III .
+L'hôpital Saint-Jean de Damme, dans le comté de Flandre, est mentionné pour la première fois.
+Les statuts de la confrérie hospitalière de Saint-Jacques, à Tongres, bonne ville de la principauté de Liège, prescrivent l'accueil, non pas seulement des pèlerins – sans mention particulière, d'ailleurs, de ceux de Compostelle – mais des pauvres, des malades et, d'une façon générale, de tous les démunis.
+Vers 1249 : fondation d'un hôpital sur la paroisse de Saint-Laurent, dans le comté de Provence.
+Vers 1249 : fondation de l'hôpital de Lessines, dans le comté de Hainaut.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1249_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1249_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parution du Pi Wei Lun (« Traité de la rate et de l'estomac ») du médecin chinois Li Dongyuan (1180-1251[11]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parution du Pi Wei Lun (« Traité de la rate et de l'estomac ») du médecin chinois Li Dongyuan (1180-1251).</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1249_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1249_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alida de Sienne (morte en 1309), devenue hospitalière de l'Observance à la mort de son mari et sanctifiée par l'Église catholique pour avoir consacré le reste de son existence au soin des démunis[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alida de Sienne (morte en 1309), devenue hospitalière de l'Observance à la mort de son mari et sanctifiée par l'Église catholique pour avoir consacré le reste de son existence au soin des démunis.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1249_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1249_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Song Ci (né en 1186), médecin légiste chinois, auteur du Xi Yuan Ji Lu (« Cas collectés d'injustices réparées »), premier traité de médecine légale, achevé en 1242[13],[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Song Ci (né en 1186), médecin légiste chinois, auteur du Xi Yuan Ji Lu (« Cas collectés d'injustices réparées »), premier traité de médecine légale, achevé en 1242,.</t>
         </is>
       </c>
     </row>
